--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C1qtnf1-Avpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C1qtnf1-Avpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>C1qtnf1</t>
+  </si>
+  <si>
+    <t>Avpr2</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>C1qtnf1</t>
-  </si>
-  <si>
-    <t>Avpr2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.2960725</v>
+        <v>2.803207</v>
       </c>
       <c r="H2">
-        <v>10.592145</v>
+        <v>5.606414</v>
       </c>
       <c r="I2">
-        <v>0.2667957219569219</v>
+        <v>0.1912091812100478</v>
       </c>
       <c r="J2">
-        <v>0.2125813822120388</v>
+        <v>0.1630234517187004</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02490933333333334</v>
+        <v>0.1811646666666666</v>
       </c>
       <c r="N2">
-        <v>0.074728</v>
+        <v>0.5434939999999999</v>
       </c>
       <c r="O2">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="P2">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="Q2">
-        <v>0.13192163526</v>
+        <v>0.5078420617526666</v>
       </c>
       <c r="R2">
-        <v>0.79152981156</v>
+        <v>3.047052370516</v>
       </c>
       <c r="S2">
-        <v>0.05348898731906447</v>
+        <v>0.0688318655040524</v>
       </c>
       <c r="T2">
-        <v>0.04261973458196949</v>
+        <v>0.05868550993051531</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.2960725</v>
+        <v>2.803207</v>
       </c>
       <c r="H3">
-        <v>10.592145</v>
+        <v>5.606414</v>
       </c>
       <c r="I3">
-        <v>0.2667957219569219</v>
+        <v>0.1912091812100478</v>
       </c>
       <c r="J3">
-        <v>0.2125813822120388</v>
+        <v>0.1630234517187004</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,60 +623,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.09933500000000001</v>
+        <v>0.234272</v>
       </c>
       <c r="N3">
-        <v>0.298005</v>
+        <v>0.702816</v>
       </c>
       <c r="O3">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="P3">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="Q3">
-        <v>0.5260853617875001</v>
+        <v>0.656712910304</v>
       </c>
       <c r="R3">
-        <v>3.156512170725</v>
+        <v>3.940277461824</v>
       </c>
       <c r="S3">
-        <v>0.2133067346378574</v>
+        <v>0.08900951323491355</v>
       </c>
       <c r="T3">
-        <v>0.1699616476300693</v>
+        <v>0.07588881449901021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.811450666666667</v>
+        <v>2.803207</v>
       </c>
       <c r="H4">
-        <v>14.434352</v>
+        <v>5.606414</v>
       </c>
       <c r="I4">
-        <v>0.2423823416830956</v>
+        <v>0.1912091812100478</v>
       </c>
       <c r="J4">
-        <v>0.2896934001087699</v>
+        <v>0.1630234517187004</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02490933333333334</v>
+        <v>0.08782366666666667</v>
       </c>
       <c r="N4">
-        <v>0.074728</v>
+        <v>0.263471</v>
       </c>
       <c r="O4">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="P4">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="Q4">
-        <v>0.1198500284728889</v>
+        <v>0.2461879171656667</v>
       </c>
       <c r="R4">
-        <v>1.078650256256</v>
+        <v>1.477127502994</v>
       </c>
       <c r="S4">
-        <v>0.04859442987150149</v>
+        <v>0.03336780247108191</v>
       </c>
       <c r="T4">
-        <v>0.05807966668722156</v>
+        <v>0.02844912728917486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>14.434352</v>
       </c>
       <c r="I5">
-        <v>0.2423823416830956</v>
+        <v>0.3281932238346552</v>
       </c>
       <c r="J5">
-        <v>0.2896934001087699</v>
+        <v>0.4197224618736194</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,163 +747,163 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09933500000000001</v>
+        <v>0.1811646666666666</v>
       </c>
       <c r="N5">
-        <v>0.298005</v>
+        <v>0.5434939999999999</v>
       </c>
       <c r="O5">
-        <v>0.7995133245513544</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="P5">
-        <v>0.7995133245513544</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="Q5">
-        <v>0.4779454519733334</v>
+        <v>0.8716648562097776</v>
       </c>
       <c r="R5">
-        <v>4.301509067760001</v>
+        <v>7.844983705887999</v>
       </c>
       <c r="S5">
-        <v>0.1937879118115941</v>
+        <v>0.1181436565931033</v>
       </c>
       <c r="T5">
-        <v>0.2316137334215483</v>
+        <v>0.1510925357343488</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.811450666666667</v>
+      </c>
+      <c r="H6">
+        <v>14.434352</v>
+      </c>
+      <c r="I6">
+        <v>0.3281932238346552</v>
+      </c>
+      <c r="J6">
+        <v>0.4197224618736194</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.8925356666666667</v>
-      </c>
-      <c r="H6">
-        <v>2.677607</v>
-      </c>
-      <c r="I6">
-        <v>0.04496250713347219</v>
-      </c>
-      <c r="J6">
-        <v>0.05373882221973268</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.02490933333333334</v>
+        <v>0.234272</v>
       </c>
       <c r="N6">
-        <v>0.074728</v>
+        <v>0.702816</v>
       </c>
       <c r="O6">
-        <v>0.2004866754486455</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="P6">
-        <v>0.2004866754486455</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="Q6">
-        <v>0.02223246843288889</v>
+        <v>1.127188170581333</v>
       </c>
       <c r="R6">
-        <v>0.200092215896</v>
+        <v>10.144693535232</v>
       </c>
       <c r="S6">
-        <v>0.009014383575025849</v>
+        <v>0.1527767595449784</v>
       </c>
       <c r="T6">
-        <v>0.01077391780936001</v>
+        <v>0.1953844046018394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8925356666666667</v>
+        <v>4.811450666666667</v>
       </c>
       <c r="H7">
-        <v>2.677607</v>
+        <v>14.434352</v>
       </c>
       <c r="I7">
-        <v>0.04496250713347219</v>
+        <v>0.3281932238346552</v>
       </c>
       <c r="J7">
-        <v>0.05373882221973268</v>
+        <v>0.4197224618736194</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.09933500000000001</v>
+        <v>0.08782366666666667</v>
       </c>
       <c r="N7">
-        <v>0.298005</v>
+        <v>0.263471</v>
       </c>
       <c r="O7">
-        <v>0.7995133245513544</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="P7">
-        <v>0.7995133245513544</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="Q7">
-        <v>0.08866003044833334</v>
+        <v>0.4225592395324445</v>
       </c>
       <c r="R7">
-        <v>0.7979402740350001</v>
+        <v>3.803033155792</v>
       </c>
       <c r="S7">
-        <v>0.03594812355844634</v>
+        <v>0.0572728076965735</v>
       </c>
       <c r="T7">
-        <v>0.04296490441037267</v>
+        <v>0.07324552153743119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -912,81 +912,81 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>4.4296165</v>
+        <v>0.1357756666666667</v>
       </c>
       <c r="H8">
-        <v>8.859233</v>
+        <v>0.407327</v>
       </c>
       <c r="I8">
-        <v>0.2231470079213971</v>
+        <v>0.009261376006688667</v>
       </c>
       <c r="J8">
-        <v>0.1778023239370785</v>
+        <v>0.0118442650717951</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.02490933333333334</v>
+        <v>0.1811646666666666</v>
       </c>
       <c r="N8">
-        <v>0.074728</v>
+        <v>0.5434939999999999</v>
       </c>
       <c r="O8">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="P8">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="Q8">
-        <v>0.1103387939373333</v>
+        <v>0.02459775339311111</v>
       </c>
       <c r="R8">
-        <v>0.662032763624</v>
+        <v>0.221379780538</v>
       </c>
       <c r="S8">
-        <v>0.04473800175447347</v>
+        <v>0.003333928756143606</v>
       </c>
       <c r="T8">
-        <v>0.035646996813188</v>
+        <v>0.004263722355050306</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>4.4296165</v>
+        <v>0.1357756666666667</v>
       </c>
       <c r="H9">
-        <v>8.859233</v>
+        <v>0.407327</v>
       </c>
       <c r="I9">
-        <v>0.2231470079213971</v>
+        <v>0.009261376006688667</v>
       </c>
       <c r="J9">
-        <v>0.1778023239370785</v>
+        <v>0.0118442650717951</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,60 +995,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09933500000000001</v>
+        <v>0.234272</v>
       </c>
       <c r="N9">
-        <v>0.298005</v>
+        <v>0.702816</v>
       </c>
       <c r="O9">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="P9">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="Q9">
-        <v>0.4400159550275</v>
+        <v>0.03180843698133333</v>
       </c>
       <c r="R9">
-        <v>2.640095730165</v>
+        <v>0.286275932832</v>
       </c>
       <c r="S9">
-        <v>0.1784090061669236</v>
+        <v>0.004311249935929054</v>
       </c>
       <c r="T9">
-        <v>0.1421553271238905</v>
+        <v>0.005513606940807141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.054588666666667</v>
+        <v>0.1357756666666667</v>
       </c>
       <c r="H10">
-        <v>6.163766</v>
+        <v>0.407327</v>
       </c>
       <c r="I10">
-        <v>0.1035022588244105</v>
+        <v>0.009261376006688667</v>
       </c>
       <c r="J10">
-        <v>0.1237050565217498</v>
+        <v>0.0118442650717951</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,60 +1057,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.02490933333333334</v>
+        <v>0.08782366666666667</v>
       </c>
       <c r="N10">
-        <v>0.074728</v>
+        <v>0.263471</v>
       </c>
       <c r="O10">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="P10">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="Q10">
-        <v>0.05117843396088889</v>
+        <v>0.01192431689077778</v>
       </c>
       <c r="R10">
-        <v>0.460605905648</v>
+        <v>0.107318852017</v>
       </c>
       <c r="S10">
-        <v>0.0207508237731313</v>
+        <v>0.001616197314616007</v>
       </c>
       <c r="T10">
-        <v>0.0248012155182324</v>
+        <v>0.002066935775937654</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.054588666666667</v>
+        <v>6.7878245</v>
       </c>
       <c r="H11">
-        <v>6.163766</v>
+        <v>13.575649</v>
       </c>
       <c r="I11">
-        <v>0.1035022588244105</v>
+        <v>0.4630033974809932</v>
       </c>
       <c r="J11">
-        <v>0.1237050565217498</v>
+        <v>0.3947530737654271</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,152 +1119,338 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.09933500000000001</v>
+        <v>0.1811646666666666</v>
       </c>
       <c r="N11">
-        <v>0.298005</v>
+        <v>0.5434939999999999</v>
       </c>
       <c r="O11">
-        <v>0.7995133245513544</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="P11">
-        <v>0.7995133245513544</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="Q11">
-        <v>0.2040925652033334</v>
+        <v>1.229713962934333</v>
       </c>
       <c r="R11">
-        <v>1.83683308683</v>
+        <v>7.378283777605999</v>
       </c>
       <c r="S11">
-        <v>0.08275143505127919</v>
+        <v>0.1666728939564976</v>
       </c>
       <c r="T11">
-        <v>0.09890384100351736</v>
+        <v>0.1421040051988116</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.366401</v>
+        <v>6.7878245</v>
       </c>
       <c r="H12">
-        <v>7.099202999999999</v>
+        <v>13.575649</v>
       </c>
       <c r="I12">
-        <v>0.1192101624807028</v>
+        <v>0.4630033974809932</v>
       </c>
       <c r="J12">
-        <v>0.1424790150006304</v>
+        <v>0.3947530737654271</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.02490933333333334</v>
+        <v>0.234272</v>
       </c>
       <c r="N12">
-        <v>0.074728</v>
+        <v>0.702816</v>
       </c>
       <c r="O12">
-        <v>0.2004866754486455</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="P12">
-        <v>0.2004866754486455</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="Q12">
-        <v>0.05894547130933333</v>
+        <v>1.590197221264</v>
       </c>
       <c r="R12">
-        <v>0.5305092417839999</v>
+        <v>9.541183327584001</v>
       </c>
       <c r="S12">
-        <v>0.02390004915544896</v>
+        <v>0.2155320512074279</v>
       </c>
       <c r="T12">
-        <v>0.02856514403867408</v>
+        <v>0.183760940355934</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.7878245</v>
+      </c>
+      <c r="H13">
+        <v>13.575649</v>
+      </c>
+      <c r="I13">
+        <v>0.4630033974809932</v>
+      </c>
+      <c r="J13">
+        <v>0.3947530737654271</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.08782366666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.263471</v>
+      </c>
+      <c r="O13">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="P13">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="Q13">
+        <v>0.5961316362798335</v>
+      </c>
+      <c r="R13">
+        <v>3.576789817679</v>
+      </c>
+      <c r="S13">
+        <v>0.08079845231706768</v>
+      </c>
+      <c r="T13">
+        <v>0.06888812821068145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.366401</v>
-      </c>
-      <c r="H13">
-        <v>7.099202999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.1192101624807028</v>
-      </c>
-      <c r="J13">
-        <v>0.1424790150006304</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1221626666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.366488</v>
+      </c>
+      <c r="I14">
+        <v>0.008332821467615248</v>
+      </c>
+      <c r="J14">
+        <v>0.01065674757045824</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M13">
-        <v>0.09933500000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.298005</v>
-      </c>
-      <c r="O13">
-        <v>0.7995133245513544</v>
-      </c>
-      <c r="P13">
-        <v>0.7995133245513544</v>
-      </c>
-      <c r="Q13">
-        <v>0.235066443335</v>
-      </c>
-      <c r="R13">
-        <v>2.115597990015</v>
-      </c>
-      <c r="S13">
-        <v>0.09531011332525381</v>
-      </c>
-      <c r="T13">
-        <v>0.1139138709619563</v>
+      <c r="M14">
+        <v>0.1811646666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.5434939999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.3599820106359796</v>
+      </c>
+      <c r="P14">
+        <v>0.3599820106359796</v>
+      </c>
+      <c r="Q14">
+        <v>0.02213155878577777</v>
+      </c>
+      <c r="R14">
+        <v>0.199184029072</v>
+      </c>
+      <c r="S14">
+        <v>0.002999665826182791</v>
+      </c>
+      <c r="T14">
+        <v>0.003836237417253648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1221626666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.366488</v>
+      </c>
+      <c r="I15">
+        <v>0.008332821467615248</v>
+      </c>
+      <c r="J15">
+        <v>0.01065674757045824</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.234272</v>
+      </c>
+      <c r="N15">
+        <v>0.702816</v>
+      </c>
+      <c r="O15">
+        <v>0.4655085737600355</v>
+      </c>
+      <c r="P15">
+        <v>0.4655085737600355</v>
+      </c>
+      <c r="Q15">
+        <v>0.02861929224533333</v>
+      </c>
+      <c r="R15">
+        <v>0.257573630208</v>
+      </c>
+      <c r="S15">
+        <v>0.003878999836786579</v>
+      </c>
+      <c r="T15">
+        <v>0.004960807362444738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1221626666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.366488</v>
+      </c>
+      <c r="I16">
+        <v>0.008332821467615248</v>
+      </c>
+      <c r="J16">
+        <v>0.01065674757045824</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.08782366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.263471</v>
+      </c>
+      <c r="O16">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="P16">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="Q16">
+        <v>0.01072877331644444</v>
+      </c>
+      <c r="R16">
+        <v>0.096558959848</v>
+      </c>
+      <c r="S16">
+        <v>0.001454155804645877</v>
+      </c>
+      <c r="T16">
+        <v>0.001859702790759854</v>
       </c>
     </row>
   </sheetData>
